--- a/element_info_datas/element_info_datas2.xlsx
+++ b/element_info_datas/element_info_datas2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>元素变量名</t>
   </si>
@@ -75,6 +75,21 @@
     <t>add_user</t>
   </si>
   <si>
+    <t>bug_link</t>
+  </si>
+  <si>
+    <t>bug连接：%s</t>
+  </si>
+  <si>
+    <t>bug_page</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//a[text()='%s']</t>
+  </si>
+  <si>
     <t>myzone_link</t>
   </si>
   <si>
@@ -82,9 +97,6 @@
   </si>
   <si>
     <t>main_page</t>
-  </si>
-  <si>
-    <t>xpath</t>
   </si>
   <si>
     <t>//a[@text='我的地盘']</t>
@@ -755,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,7 +780,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,18 +1105,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="3" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="46.4" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="46.9" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1202,6 +1218,26 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1257,19 +1293,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -1277,19 +1313,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -1297,19 +1333,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -1358,16 +1394,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -1375,16 +1411,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>

--- a/element_info_datas/element_info_datas2.xlsx
+++ b/element_info_datas/element_info_datas2.xlsx
@@ -136,11 +136,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -777,13 +778,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1157,8 +1158,8 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
+      <c r="F2" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1171,15 +1172,13 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -1197,7 +1196,7 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1208,7 +1207,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1217,24 +1216,24 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="5">

--- a/element_info_datas/element_info_datas2.xlsx
+++ b/element_info_datas/element_info_datas2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>元素变量名</t>
   </si>
@@ -99,37 +99,46 @@
     <t>main_page</t>
   </si>
   <si>
+    <t>//li[@data-id="my"]</t>
+  </si>
+  <si>
+    <t>user_menu</t>
+  </si>
+  <si>
+    <t>用户菜单</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>user-name</t>
+  </si>
+  <si>
+    <t>quit_button</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>//*[@id="userNav"]/li/ul/li[13]/a</t>
+  </si>
+  <si>
+    <t>firstpage_link</t>
+  </si>
+  <si>
+    <t>首页链接</t>
+  </si>
+  <si>
     <t>//a[@text='我的地盘']</t>
   </si>
   <si>
-    <t>user_menu</t>
-  </si>
-  <si>
-    <t>用户菜单</t>
+    <t>calendar_link</t>
+  </si>
+  <si>
+    <t>日程链接</t>
   </si>
   <si>
     <t>userNav</t>
-  </si>
-  <si>
-    <t>quit_button</t>
-  </si>
-  <si>
-    <t>退出按钮</t>
-  </si>
-  <si>
-    <t>//a[@href='/zentao/www/index.php?m=user&amp;f=logout']</t>
-  </si>
-  <si>
-    <t>firstpage_link</t>
-  </si>
-  <si>
-    <t>首页链接</t>
-  </si>
-  <si>
-    <t>calendar_link</t>
-  </si>
-  <si>
-    <t>日程链接</t>
   </si>
 </sst>
 </file>
@@ -768,20 +777,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1121,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1143,80 +1155,80 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1236,7 +1248,7 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1258,16 +1270,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="3" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1317,14 +1330,14 @@
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -1332,25 +1345,30 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4">
+      <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1393,16 +1411,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -1410,16 +1428,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>

--- a/element_info_datas/element_info_datas2.xlsx
+++ b/element_info_datas/element_info_datas2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="main" sheetId="1" r:id="rId2"/>
     <sheet name="myzone" sheetId="4" r:id="rId3"/>
+    <sheet name="qa" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>元素变量名</t>
   </si>
@@ -139,6 +140,375 @@
   </si>
   <si>
     <t>userNav</t>
+  </si>
+  <si>
+    <t>所属页面</t>
+  </si>
+  <si>
+    <t>qa_click</t>
+  </si>
+  <si>
+    <t>测试链接</t>
+  </si>
+  <si>
+    <t>create_bug_page</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>#navbar &gt; ul &gt; li:nth-child(4) &gt; a</t>
+  </si>
+  <si>
+    <t>bug_click</t>
+  </si>
+  <si>
+    <t>bug页面链接</t>
+  </si>
+  <si>
+    <t>#subNavbar &gt; ul &gt; li:nth-child(1) &gt; a</t>
+  </si>
+  <si>
+    <t>create_bug_button</t>
+  </si>
+  <si>
+    <t>创建bug按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>path</t>
+    </r>
+  </si>
+  <si>
+    <t>//*[@id="mainMenu"]/div[3]/a[3]</t>
+  </si>
+  <si>
+    <t>bug_module_select</t>
+  </si>
+  <si>
+    <t>所属模块下拉框</t>
+  </si>
+  <si>
+    <t>#module_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>bug_module_choose</t>
+  </si>
+  <si>
+    <t>选择所属模块</t>
+  </si>
+  <si>
+    <t>#module_chosen &gt; div &gt; ul &gt; li:nth-child(1)</t>
+  </si>
+  <si>
+    <t>bug_project_select</t>
+  </si>
+  <si>
+    <t>所属项目下拉框</t>
+  </si>
+  <si>
+    <t>#project_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>bug_project_choose</t>
+  </si>
+  <si>
+    <t>选择所属项目</t>
+  </si>
+  <si>
+    <t>#project_chosen &gt; div &gt; ul &gt; li:nth-child(1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ersion_select</t>
+    </r>
+  </si>
+  <si>
+    <t>影响版本下拉框</t>
+  </si>
+  <si>
+    <t>#openedBuild_chosen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ersion_choose</t>
+    </r>
+  </si>
+  <si>
+    <t>选择影响版本</t>
+  </si>
+  <si>
+    <t>//*[@id="openedBuild_chosen"]/div/ul/li[2]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atetime_select</t>
+    </r>
+  </si>
+  <si>
+    <t>截止日期下拉框</t>
+  </si>
+  <si>
+    <t>#deadline</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atetime_choose</t>
+    </r>
+  </si>
+  <si>
+    <t>选择截止日期</t>
+  </si>
+  <si>
+    <t>body &gt; div.datetimepicker.dropdown-menu.datetimepicker-dropdown-bottom-right &gt; div.datetimepicker-days &gt; table &gt; tfoot &gt; tr &gt; th</t>
+  </si>
+  <si>
+    <t>bug_system_select</t>
+  </si>
+  <si>
+    <t>操作系统下拉框</t>
+  </si>
+  <si>
+    <t>#os_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>bug_system_choose</t>
+  </si>
+  <si>
+    <t>选择操作系统</t>
+  </si>
+  <si>
+    <t>#os_chosen &gt; div &gt; ul &gt; li:nth-child(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rowser_select</t>
+    </r>
+  </si>
+  <si>
+    <t>浏览器下拉框</t>
+  </si>
+  <si>
+    <t>#browser_chosen &gt; a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rowser_choose</t>
+    </r>
+  </si>
+  <si>
+    <t>选择浏览器</t>
+  </si>
+  <si>
+    <t>#browser_chosen &gt; div &gt; ul &gt; li:nth-child(9)</t>
+  </si>
+  <si>
+    <t>bug_title_input</t>
+  </si>
+  <si>
+    <t>bug标题输入框</t>
+  </si>
+  <si>
+    <t>.input-control.has-icon-right.required &gt; input</t>
+  </si>
+  <si>
+    <t>bug_steps_frame</t>
+  </si>
+  <si>
+    <t>重现步骤frame框架</t>
+  </si>
+  <si>
+    <t>.ke-edit-iframe</t>
+  </si>
+  <si>
+    <t>bug_steps_input</t>
+  </si>
+  <si>
+    <t>输入重现步骤</t>
+  </si>
+  <si>
+    <t>.article-content</t>
+  </si>
+  <si>
+    <t>bug_save_button</t>
+  </si>
+  <si>
+    <t>保存按钮</t>
+  </si>
+  <si>
+    <t>.btn.btn-wide.btn-primary</t>
   </si>
 </sst>
 </file>
@@ -152,13 +522,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -632,51 +1008,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,108 +1059,120 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1505,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1135,120 +1520,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
     </row>
@@ -1276,90 +1661,90 @@
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1393,53 +1778,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1447,4 +1832,430 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="28.1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.2" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="31.2" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>